--- a/dumps/Stocks/Bharti Airtel Limited.xlsx
+++ b/dumps/Stocks/Bharti Airtel Limited.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB19"/>
+  <dimension ref="A1:AB20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,11 +574,11 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>46063</v>
+        <v>46062</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -590,18 +590,18 @@
         <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>2022.1</v>
+        <v>2053</v>
       </c>
       <c r="F5" t="n">
-        <v>4064.42</v>
+        <v>4126.54</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CN#252611730667</t>
+          <t>CN#252611665409</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>20.22</v>
+        <v>20.54</v>
       </c>
       <c r="J5">
         <f>Index!$C$2</f>
@@ -610,11 +610,11 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>46059</v>
+        <v>46063</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -623,21 +623,21 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>2002.1</v>
+        <v>2022.1</v>
       </c>
       <c r="F6" t="n">
-        <v>6036.33</v>
+        <v>4064.42</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>CN#252611604850</t>
+          <t>CN#252611730667</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>30.03</v>
+        <v>20.22</v>
       </c>
       <c r="J6">
         <f>Index!$C$2</f>
@@ -646,7 +646,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>46057</v>
+        <v>46059</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -659,21 +659,21 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
-        <v>2021.6</v>
+        <v>2002.1</v>
       </c>
       <c r="F7" t="n">
-        <v>4063.42</v>
+        <v>6036.33</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>CN#252611485581</t>
+          <t>CN#252611604850</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>20.22</v>
+        <v>30.03</v>
       </c>
       <c r="J7">
         <f>Index!$C$2</f>
@@ -682,7 +682,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>46050</v>
+        <v>46057</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -695,21 +695,21 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>1958.7</v>
+        <v>2021.6</v>
       </c>
       <c r="F8" t="n">
-        <v>5905.47</v>
+        <v>4063.42</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>CN#252611091662</t>
+          <t>CN#252611485581</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>29.37</v>
+        <v>20.22</v>
       </c>
       <c r="J8">
         <f>Index!$C$2</f>
@@ -718,7 +718,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>46049</v>
+        <v>46050</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -734,18 +734,18 @@
         <v>3</v>
       </c>
       <c r="E9" t="n">
-        <v>1984.2</v>
+        <v>1958.7</v>
       </c>
       <c r="F9" t="n">
-        <v>5982.36</v>
+        <v>5905.47</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>CN#252611030591</t>
+          <t>CN#252611091662</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>29.76</v>
+        <v>29.37</v>
       </c>
       <c r="J9">
         <f>Index!$C$2</f>
@@ -754,7 +754,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>46044</v>
+        <v>46049</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -770,18 +770,18 @@
         <v>3</v>
       </c>
       <c r="E10" t="n">
-        <v>1996.1</v>
+        <v>1984.2</v>
       </c>
       <c r="F10" t="n">
-        <v>6018.24</v>
+        <v>5982.36</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>CN#252610906344</t>
+          <t>CN#252611030591</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>29.94</v>
+        <v>29.76</v>
       </c>
       <c r="J10">
         <f>Index!$C$2</f>
@@ -790,7 +790,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>46038</v>
+        <v>46044</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -806,18 +806,18 @@
         <v>3</v>
       </c>
       <c r="E11" t="n">
-        <v>1994.6</v>
+        <v>1996.1</v>
       </c>
       <c r="F11" t="n">
-        <v>6013.71</v>
+        <v>6018.24</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>CN#252610644483</t>
+          <t>CN#252610906344</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>29.91</v>
+        <v>29.94</v>
       </c>
       <c r="J11">
         <f>Index!$C$2</f>
@@ -826,7 +826,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>46034</v>
+        <v>46038</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -839,21 +839,21 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E12" t="n">
-        <v>2005.4</v>
+        <v>1994.6</v>
       </c>
       <c r="F12" t="n">
-        <v>10077.15</v>
+        <v>6013.71</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>CN#252610469431</t>
+          <t>CN#252610644483</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>50.15</v>
+        <v>29.91</v>
       </c>
       <c r="J12">
         <f>Index!$C$2</f>
@@ -862,7 +862,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>46030</v>
+        <v>46034</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -875,21 +875,21 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E13" t="n">
-        <v>2067.8</v>
+        <v>2005.4</v>
       </c>
       <c r="F13" t="n">
-        <v>6234.42</v>
+        <v>10077.15</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>CN#252610347614</t>
+          <t>CN#252610469431</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>31.02</v>
+        <v>50.15</v>
       </c>
       <c r="J13">
         <f>Index!$C$2</f>
@@ -898,7 +898,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>46027</v>
+        <v>46030</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -914,18 +914,18 @@
         <v>3</v>
       </c>
       <c r="E14" t="n">
-        <v>2102.1</v>
+        <v>2067.8</v>
       </c>
       <c r="F14" t="n">
-        <v>6337.83</v>
+        <v>6234.42</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>CN#252610159828</t>
+          <t>CN#252610347614</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>31.53</v>
+        <v>31.02</v>
       </c>
       <c r="J14">
         <f>Index!$C$2</f>
@@ -934,7 +934,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>46022</v>
+        <v>46027</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -947,21 +947,21 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E15" t="n">
-        <v>2096</v>
+        <v>2102.1</v>
       </c>
       <c r="F15" t="n">
-        <v>4212.96</v>
+        <v>6337.83</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>CN#252609981253</t>
+          <t>CN#252610159828</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>20.96</v>
+        <v>31.53</v>
       </c>
       <c r="J15">
         <f>Index!$C$2</f>
@@ -970,11 +970,11 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>46020</v>
+        <v>46022</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -986,14 +986,14 @@
         <v>2</v>
       </c>
       <c r="E16" t="n">
-        <v>2096.85</v>
+        <v>2096</v>
       </c>
       <c r="F16" t="n">
-        <v>4214.66</v>
+        <v>4212.96</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>CN#252609871125</t>
+          <t>CN#252609981253</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -1006,11 +1006,11 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>46017</v>
+        <v>46020</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1022,18 +1022,18 @@
         <v>2</v>
       </c>
       <c r="E17" t="n">
-        <v>2116.1</v>
+        <v>2096.85</v>
       </c>
       <c r="F17" t="n">
-        <v>4253.36</v>
+        <v>4214.66</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>CN#252609810990</t>
+          <t>CN#252609871125</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>21.16</v>
+        <v>20.96</v>
       </c>
       <c r="J17">
         <f>Index!$C$2</f>
@@ -1042,11 +1042,11 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>46014</v>
+        <v>46017</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1058,18 +1058,18 @@
         <v>2</v>
       </c>
       <c r="E18" t="n">
-        <v>2132</v>
+        <v>2116.1</v>
       </c>
       <c r="F18" t="n">
-        <v>4285.32</v>
+        <v>4253.36</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>CN#252609701573</t>
+          <t>CN#252609810990</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>21.32</v>
+        <v>21.16</v>
       </c>
       <c r="J18">
         <f>Index!$C$2</f>
@@ -1078,11 +1078,11 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>46009</v>
+        <v>46014</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1094,20 +1094,56 @@
         <v>2</v>
       </c>
       <c r="E19" t="n">
+        <v>2132</v>
+      </c>
+      <c r="F19" t="n">
+        <v>4285.32</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>CN#252609701573</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>21.32</v>
+      </c>
+      <c r="J19">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>46009</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>2</v>
+      </c>
+      <c r="E20" t="n">
         <v>2106</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F20" t="n">
         <v>4233.06</v>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>CN#252609527272</t>
         </is>
       </c>
-      <c r="I19" t="n">
+      <c r="I20" t="n">
         <v>21.06</v>
       </c>
-      <c r="J19">
+      <c r="J20">
         <f>Index!$C$2</f>
         <v/>
       </c>

--- a/dumps/Stocks/Bharti Airtel Limited.xlsx
+++ b/dumps/Stocks/Bharti Airtel Limited.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB20"/>
+  <dimension ref="A1:AB21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,7 +574,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>46062</v>
+        <v>46066</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -587,21 +587,24 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>2053</v>
+        <v>2003.6</v>
       </c>
       <c r="F5" t="n">
-        <v>4126.54</v>
+        <v>6053.16</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CN#252611665409</t>
-        </is>
+          <t>CN#252611910666</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6.0717</v>
       </c>
       <c r="I5" t="n">
-        <v>20.54</v>
+        <v>36.2857</v>
       </c>
       <c r="J5">
         <f>Index!$C$2</f>
@@ -610,11 +613,11 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>46063</v>
+        <v>46062</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -626,18 +629,18 @@
         <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>2022.1</v>
+        <v>2053</v>
       </c>
       <c r="F6" t="n">
-        <v>4064.42</v>
+        <v>4126.54</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>CN#252611730667</t>
+          <t>CN#252611665409</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>20.22</v>
+        <v>20.54</v>
       </c>
       <c r="J6">
         <f>Index!$C$2</f>
@@ -646,11 +649,11 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>46059</v>
+        <v>46063</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -659,21 +662,21 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>2002.1</v>
+        <v>2022.1</v>
       </c>
       <c r="F7" t="n">
-        <v>6036.33</v>
+        <v>4064.42</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>CN#252611604850</t>
+          <t>CN#252611730667</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>30.03</v>
+        <v>20.22</v>
       </c>
       <c r="J7">
         <f>Index!$C$2</f>
@@ -682,7 +685,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>46057</v>
+        <v>46059</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -695,21 +698,21 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8" t="n">
-        <v>2021.6</v>
+        <v>2002.1</v>
       </c>
       <c r="F8" t="n">
-        <v>4063.42</v>
+        <v>6036.33</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>CN#252611485581</t>
+          <t>CN#252611604850</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>20.22</v>
+        <v>30.03</v>
       </c>
       <c r="J8">
         <f>Index!$C$2</f>
@@ -718,7 +721,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>46050</v>
+        <v>46057</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -731,21 +734,21 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>1958.7</v>
+        <v>2021.6</v>
       </c>
       <c r="F9" t="n">
-        <v>5905.47</v>
+        <v>4063.42</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>CN#252611091662</t>
+          <t>CN#252611485581</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>29.37</v>
+        <v>20.22</v>
       </c>
       <c r="J9">
         <f>Index!$C$2</f>
@@ -754,7 +757,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>46049</v>
+        <v>46050</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -770,18 +773,18 @@
         <v>3</v>
       </c>
       <c r="E10" t="n">
-        <v>1984.2</v>
+        <v>1958.7</v>
       </c>
       <c r="F10" t="n">
-        <v>5982.36</v>
+        <v>5905.47</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>CN#252611030591</t>
+          <t>CN#252611091662</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>29.76</v>
+        <v>29.37</v>
       </c>
       <c r="J10">
         <f>Index!$C$2</f>
@@ -790,7 +793,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>46044</v>
+        <v>46049</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -806,18 +809,18 @@
         <v>3</v>
       </c>
       <c r="E11" t="n">
-        <v>1996.1</v>
+        <v>1984.2</v>
       </c>
       <c r="F11" t="n">
-        <v>6018.24</v>
+        <v>5982.36</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>CN#252610906344</t>
+          <t>CN#252611030591</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>29.94</v>
+        <v>29.76</v>
       </c>
       <c r="J11">
         <f>Index!$C$2</f>
@@ -826,7 +829,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>46038</v>
+        <v>46044</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -842,18 +845,18 @@
         <v>3</v>
       </c>
       <c r="E12" t="n">
-        <v>1994.6</v>
+        <v>1996.1</v>
       </c>
       <c r="F12" t="n">
-        <v>6013.71</v>
+        <v>6018.24</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>CN#252610644483</t>
+          <t>CN#252610906344</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>29.91</v>
+        <v>29.94</v>
       </c>
       <c r="J12">
         <f>Index!$C$2</f>
@@ -862,7 +865,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>46034</v>
+        <v>46038</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -875,21 +878,21 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E13" t="n">
-        <v>2005.4</v>
+        <v>1994.6</v>
       </c>
       <c r="F13" t="n">
-        <v>10077.15</v>
+        <v>6013.71</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>CN#252610469431</t>
+          <t>CN#252610644483</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>50.15</v>
+        <v>29.91</v>
       </c>
       <c r="J13">
         <f>Index!$C$2</f>
@@ -898,7 +901,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>46030</v>
+        <v>46034</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -911,21 +914,21 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E14" t="n">
-        <v>2067.8</v>
+        <v>2005.4</v>
       </c>
       <c r="F14" t="n">
-        <v>6234.42</v>
+        <v>10077.15</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>CN#252610347614</t>
+          <t>CN#252610469431</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>31.02</v>
+        <v>50.15</v>
       </c>
       <c r="J14">
         <f>Index!$C$2</f>
@@ -934,7 +937,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>46027</v>
+        <v>46030</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -950,18 +953,18 @@
         <v>3</v>
       </c>
       <c r="E15" t="n">
-        <v>2102.1</v>
+        <v>2067.8</v>
       </c>
       <c r="F15" t="n">
-        <v>6337.83</v>
+        <v>6234.42</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>CN#252610159828</t>
+          <t>CN#252610347614</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>31.53</v>
+        <v>31.02</v>
       </c>
       <c r="J15">
         <f>Index!$C$2</f>
@@ -970,7 +973,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>46022</v>
+        <v>46027</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -983,21 +986,21 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E16" t="n">
-        <v>2096</v>
+        <v>2102.1</v>
       </c>
       <c r="F16" t="n">
-        <v>4212.96</v>
+        <v>6337.83</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>CN#252609981253</t>
+          <t>CN#252610159828</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>20.96</v>
+        <v>31.53</v>
       </c>
       <c r="J16">
         <f>Index!$C$2</f>
@@ -1006,11 +1009,11 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>46020</v>
+        <v>46022</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1022,14 +1025,14 @@
         <v>2</v>
       </c>
       <c r="E17" t="n">
-        <v>2096.85</v>
+        <v>2096</v>
       </c>
       <c r="F17" t="n">
-        <v>4214.66</v>
+        <v>4212.96</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>CN#252609871125</t>
+          <t>CN#252609981253</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -1042,11 +1045,11 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>46017</v>
+        <v>46020</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1058,18 +1061,18 @@
         <v>2</v>
       </c>
       <c r="E18" t="n">
-        <v>2116.1</v>
+        <v>2096.85</v>
       </c>
       <c r="F18" t="n">
-        <v>4253.36</v>
+        <v>4214.66</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>CN#252609810990</t>
+          <t>CN#252609871125</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>21.16</v>
+        <v>20.96</v>
       </c>
       <c r="J18">
         <f>Index!$C$2</f>
@@ -1078,11 +1081,11 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>46014</v>
+        <v>46017</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1094,18 +1097,18 @@
         <v>2</v>
       </c>
       <c r="E19" t="n">
-        <v>2132</v>
+        <v>2116.1</v>
       </c>
       <c r="F19" t="n">
-        <v>4285.32</v>
+        <v>4253.36</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>CN#252609701573</t>
+          <t>CN#252609810990</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>21.32</v>
+        <v>21.16</v>
       </c>
       <c r="J19">
         <f>Index!$C$2</f>
@@ -1114,11 +1117,11 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>46009</v>
+        <v>46014</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1130,20 +1133,56 @@
         <v>2</v>
       </c>
       <c r="E20" t="n">
+        <v>2132</v>
+      </c>
+      <c r="F20" t="n">
+        <v>4285.32</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>CN#252609701573</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>21.32</v>
+      </c>
+      <c r="J20">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>46009</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>2</v>
+      </c>
+      <c r="E21" t="n">
         <v>2106</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F21" t="n">
         <v>4233.06</v>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>CN#252609527272</t>
         </is>
       </c>
-      <c r="I20" t="n">
+      <c r="I21" t="n">
         <v>21.06</v>
       </c>
-      <c r="J20">
+      <c r="J21">
         <f>Index!$C$2</f>
         <v/>
       </c>

--- a/dumps/Stocks/Bharti Airtel Limited.xlsx
+++ b/dumps/Stocks/Bharti Airtel Limited.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB21"/>
+  <dimension ref="A1:AB22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,7 +574,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>46066</v>
+        <v>46069</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -587,24 +587,24 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>2003.6</v>
+        <v>2025.9</v>
       </c>
       <c r="F5" t="n">
-        <v>6053.16</v>
+        <v>4080.4</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CN#252611910666</t>
+          <t>CN#252611972212</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6.0717</v>
+        <v>4.0765</v>
       </c>
       <c r="I5" t="n">
-        <v>36.2857</v>
+        <v>24.519</v>
       </c>
       <c r="J5">
         <f>Index!$C$2</f>
@@ -613,7 +613,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>46062</v>
+        <v>46066</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -626,21 +626,24 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>2053</v>
+        <v>2003.6</v>
       </c>
       <c r="F6" t="n">
-        <v>4126.54</v>
+        <v>6053.16</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>CN#252611665409</t>
-        </is>
+          <t>CN#252611910666</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6.0717</v>
       </c>
       <c r="I6" t="n">
-        <v>20.54</v>
+        <v>36.2857</v>
       </c>
       <c r="J6">
         <f>Index!$C$2</f>
@@ -649,11 +652,11 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>46063</v>
+        <v>46062</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -665,18 +668,18 @@
         <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>2022.1</v>
+        <v>2053</v>
       </c>
       <c r="F7" t="n">
-        <v>4064.42</v>
+        <v>4126.54</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>CN#252611730667</t>
+          <t>CN#252611665409</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>20.22</v>
+        <v>20.54</v>
       </c>
       <c r="J7">
         <f>Index!$C$2</f>
@@ -685,11 +688,11 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>46059</v>
+        <v>46063</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -698,21 +701,21 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>2002.1</v>
+        <v>2022.1</v>
       </c>
       <c r="F8" t="n">
-        <v>6036.33</v>
+        <v>4064.42</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>CN#252611604850</t>
+          <t>CN#252611730667</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>30.03</v>
+        <v>20.22</v>
       </c>
       <c r="J8">
         <f>Index!$C$2</f>
@@ -721,7 +724,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>46057</v>
+        <v>46059</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -734,21 +737,21 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9" t="n">
-        <v>2021.6</v>
+        <v>2002.1</v>
       </c>
       <c r="F9" t="n">
-        <v>4063.42</v>
+        <v>6036.33</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>CN#252611485581</t>
+          <t>CN#252611604850</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>20.22</v>
+        <v>30.03</v>
       </c>
       <c r="J9">
         <f>Index!$C$2</f>
@@ -757,7 +760,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>46050</v>
+        <v>46057</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -770,21 +773,21 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>1958.7</v>
+        <v>2021.6</v>
       </c>
       <c r="F10" t="n">
-        <v>5905.47</v>
+        <v>4063.42</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>CN#252611091662</t>
+          <t>CN#252611485581</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>29.37</v>
+        <v>20.22</v>
       </c>
       <c r="J10">
         <f>Index!$C$2</f>
@@ -793,7 +796,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>46049</v>
+        <v>46050</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -809,18 +812,18 @@
         <v>3</v>
       </c>
       <c r="E11" t="n">
-        <v>1984.2</v>
+        <v>1958.7</v>
       </c>
       <c r="F11" t="n">
-        <v>5982.36</v>
+        <v>5905.47</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>CN#252611030591</t>
+          <t>CN#252611091662</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>29.76</v>
+        <v>29.37</v>
       </c>
       <c r="J11">
         <f>Index!$C$2</f>
@@ -829,7 +832,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>46044</v>
+        <v>46049</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -845,18 +848,18 @@
         <v>3</v>
       </c>
       <c r="E12" t="n">
-        <v>1996.1</v>
+        <v>1984.2</v>
       </c>
       <c r="F12" t="n">
-        <v>6018.24</v>
+        <v>5982.36</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>CN#252610906344</t>
+          <t>CN#252611030591</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>29.94</v>
+        <v>29.76</v>
       </c>
       <c r="J12">
         <f>Index!$C$2</f>
@@ -865,7 +868,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>46038</v>
+        <v>46044</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -881,18 +884,18 @@
         <v>3</v>
       </c>
       <c r="E13" t="n">
-        <v>1994.6</v>
+        <v>1996.1</v>
       </c>
       <c r="F13" t="n">
-        <v>6013.71</v>
+        <v>6018.24</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>CN#252610644483</t>
+          <t>CN#252610906344</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>29.91</v>
+        <v>29.94</v>
       </c>
       <c r="J13">
         <f>Index!$C$2</f>
@@ -901,7 +904,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>46034</v>
+        <v>46038</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -914,21 +917,21 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E14" t="n">
-        <v>2005.4</v>
+        <v>1994.6</v>
       </c>
       <c r="F14" t="n">
-        <v>10077.15</v>
+        <v>6013.71</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>CN#252610469431</t>
+          <t>CN#252610644483</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>50.15</v>
+        <v>29.91</v>
       </c>
       <c r="J14">
         <f>Index!$C$2</f>
@@ -937,7 +940,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>46030</v>
+        <v>46034</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -950,21 +953,21 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E15" t="n">
-        <v>2067.8</v>
+        <v>2005.4</v>
       </c>
       <c r="F15" t="n">
-        <v>6234.42</v>
+        <v>10077.15</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>CN#252610347614</t>
+          <t>CN#252610469431</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>31.02</v>
+        <v>50.15</v>
       </c>
       <c r="J15">
         <f>Index!$C$2</f>
@@ -973,7 +976,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>46027</v>
+        <v>46030</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -989,18 +992,18 @@
         <v>3</v>
       </c>
       <c r="E16" t="n">
-        <v>2102.1</v>
+        <v>2067.8</v>
       </c>
       <c r="F16" t="n">
-        <v>6337.83</v>
+        <v>6234.42</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>CN#252610159828</t>
+          <t>CN#252610347614</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>31.53</v>
+        <v>31.02</v>
       </c>
       <c r="J16">
         <f>Index!$C$2</f>
@@ -1009,7 +1012,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>46022</v>
+        <v>46027</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1022,21 +1025,21 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E17" t="n">
-        <v>2096</v>
+        <v>2102.1</v>
       </c>
       <c r="F17" t="n">
-        <v>4212.96</v>
+        <v>6337.83</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>CN#252609981253</t>
+          <t>CN#252610159828</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>20.96</v>
+        <v>31.53</v>
       </c>
       <c r="J17">
         <f>Index!$C$2</f>
@@ -1045,11 +1048,11 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>46020</v>
+        <v>46022</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1061,14 +1064,14 @@
         <v>2</v>
       </c>
       <c r="E18" t="n">
-        <v>2096.85</v>
+        <v>2096</v>
       </c>
       <c r="F18" t="n">
-        <v>4214.66</v>
+        <v>4212.96</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>CN#252609871125</t>
+          <t>CN#252609981253</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -1081,11 +1084,11 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>46017</v>
+        <v>46020</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1097,18 +1100,18 @@
         <v>2</v>
       </c>
       <c r="E19" t="n">
-        <v>2116.1</v>
+        <v>2096.85</v>
       </c>
       <c r="F19" t="n">
-        <v>4253.36</v>
+        <v>4214.66</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>CN#252609810990</t>
+          <t>CN#252609871125</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>21.16</v>
+        <v>20.96</v>
       </c>
       <c r="J19">
         <f>Index!$C$2</f>
@@ -1117,11 +1120,11 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>46014</v>
+        <v>46017</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1133,18 +1136,18 @@
         <v>2</v>
       </c>
       <c r="E20" t="n">
-        <v>2132</v>
+        <v>2116.1</v>
       </c>
       <c r="F20" t="n">
-        <v>4285.32</v>
+        <v>4253.36</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>CN#252609701573</t>
+          <t>CN#252609810990</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>21.32</v>
+        <v>21.16</v>
       </c>
       <c r="J20">
         <f>Index!$C$2</f>
@@ -1153,11 +1156,11 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>46009</v>
+        <v>46014</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1169,20 +1172,56 @@
         <v>2</v>
       </c>
       <c r="E21" t="n">
+        <v>2132</v>
+      </c>
+      <c r="F21" t="n">
+        <v>4285.32</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>CN#252609701573</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>21.32</v>
+      </c>
+      <c r="J21">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>46009</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" t="n">
         <v>2106</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F22" t="n">
         <v>4233.06</v>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>CN#252609527272</t>
         </is>
       </c>
-      <c r="I21" t="n">
+      <c r="I22" t="n">
         <v>21.06</v>
       </c>
-      <c r="J21">
+      <c r="J22">
         <f>Index!$C$2</f>
         <v/>
       </c>
